--- a/data/raw/wbs_correct.xlsx
+++ b/data/raw/wbs_correct.xlsx
@@ -2989,7 +2989,7 @@
   <dimension ref="A1:G623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
